--- a/RegressionTests/Unit_Test_2/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/Unit_Test_2/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Pension EE</t>
   </si>
@@ -93,58 +93,58 @@
     <t>Rossaveel Newtownforbes</t>
   </si>
   <si>
-    <t>ISSUES FOUND</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>avc</t>
-  </si>
-  <si>
-    <t>263.08</t>
-  </si>
-  <si>
-    <t>420.93</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>117.23</t>
-  </si>
-  <si>
-    <t>234.45</t>
-  </si>
-  <si>
-    <t>372.79</t>
-  </si>
-  <si>
-    <t>596.47</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>729.73</t>
-  </si>
-  <si>
-    <t>210.54</t>
-  </si>
-  <si>
-    <t>336.87</t>
-  </si>
-  <si>
-    <t>1751.04</t>
-  </si>
-  <si>
-    <t>560.33</t>
-  </si>
-  <si>
-    <t>4_Errors_found</t>
+    <t>FORENAME</t>
+  </si>
+  <si>
+    <t>SURNAME</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>AVC</t>
+  </si>
+  <si>
+    <t>Dromahane</t>
+  </si>
+  <si>
+    <t>Recess</t>
+  </si>
+  <si>
+    <t>Ballybofey</t>
+  </si>
+  <si>
+    <t>Kilcoole</t>
+  </si>
+  <si>
+    <t>Caherdaniel</t>
+  </si>
+  <si>
+    <t>Carndonagh</t>
+  </si>
+  <si>
+    <t>Sheeaun</t>
+  </si>
+  <si>
+    <t>D Knocknagoshel</t>
+  </si>
+  <si>
+    <t>Ballinode</t>
+  </si>
+  <si>
+    <t>O'Portnablagh</t>
+  </si>
+  <si>
+    <t>Rossaveel</t>
+  </si>
+  <si>
+    <t>Newtownforbes</t>
+  </si>
+  <si>
+    <t>2_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -159,25 +159,10 @@
     <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
-    <t>No Forename column was found</t>
-  </si>
-  <si>
-    <t>No Surname column was found</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>AVC</t>
+    <t>APIM Error</t>
+  </si>
+  <si>
+    <t>Response code:502, Reason:Bad Gateway, timestamp:2022-01-31T15:27:41.909 GMT</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -264,14 +249,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -285,6 +262,14 @@
         <color auto="1"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -311,15 +296,18 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -925,7 +913,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -933,10 +921,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -949,89 +937,110 @@
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="5"/>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>263.08</v>
+      </c>
+      <c r="D2">
+        <v>420.93</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>117.23</v>
+      </c>
+      <c r="D3">
+        <v>234.45</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>372.79</v>
+      </c>
+      <c r="D4">
+        <v>596.47</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25">
-      <c r="A6" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>500.0</v>
+      </c>
+      <c r="D5">
+        <v>729.73</v>
+      </c>
+      <c r="E5">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>210.54</v>
+      </c>
+      <c r="D6">
+        <v>336.87</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
+      <c r="C7">
+        <v>1751.04</v>
+      </c>
+      <c r="D7">
+        <v>560.33</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1054,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1054,16 +1063,16 @@
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1077,26 +1086,10 @@
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1117,13 +1110,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -1139,22 +1132,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_2/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/Unit_Test_2/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Pension EE</t>
   </si>
@@ -93,6 +93,9 @@
     <t>Rossaveel Newtownforbes</t>
   </si>
   <si>
+    <t>ISSUES FOUND</t>
+  </si>
+  <si>
     <t>FORENAME</t>
   </si>
   <si>
@@ -159,10 +162,10 @@
     <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
-    <t>APIM Error</t>
-  </si>
-  <si>
-    <t>Response code:502, Reason:Bad Gateway, timestamp:2022-01-31T15:27:41.909 GMT</t>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -249,6 +252,14 @@
       </bottom>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -262,14 +273,6 @@
         <color auto="1"/>
       </bottom>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -296,18 +299,15 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -913,7 +913,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -921,10 +921,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.625"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -940,106 +940,115 @@
       <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
         <v>263.08</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>420.93</v>
       </c>
-      <c r="E2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
         <v>117.23</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>234.45</v>
       </c>
-      <c r="E3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
         <v>372.79</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>596.47</v>
       </c>
-      <c r="E4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
         <v>500.0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>729.73</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>500.0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="6" t="s">
-        <v>34</v>
-      </c>
+    <row r="6" spans="1:6" ht="14.25">
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
         <v>210.54</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>336.87</v>
       </c>
-      <c r="E6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
         <v>1751.04</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>560.33</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0</v>
       </c>
     </row>
@@ -1063,33 +1072,33 @@
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1110,13 +1119,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -1132,22 +1141,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_2/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/Unit_Test_2/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -208,7 +208,28 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>1160359</t>
+    <t>1181858</t>
+  </si>
+  <si>
+    <t>352001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>07/09/2021</t>
+  </si>
+  <si>
+    <t>15,788.67</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1180620</t>
   </si>
   <si>
     <t>352004</t>
@@ -217,82 +238,61 @@
     <t>Direct Debit</t>
   </si>
   <si>
-    <t>27/04/2021</t>
-  </si>
-  <si>
-    <t>7,091.18</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM April 2021</t>
-  </si>
-  <si>
-    <t>1157591</t>
-  </si>
-  <si>
-    <t>352001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>26/03/2021</t>
-  </si>
-  <si>
-    <t>15,329.63</t>
-  </si>
-  <si>
-    <t>01/03/2021</t>
-  </si>
-  <si>
-    <t>ILIM March 2021</t>
-  </si>
-  <si>
-    <t>1155040</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>1151936</t>
-  </si>
-  <si>
-    <t>02/03/2021</t>
-  </si>
-  <si>
-    <t>13,973.83</t>
-  </si>
-  <si>
-    <t>01/02/2021</t>
-  </si>
-  <si>
-    <t>ILIM Feb 2021</t>
-  </si>
-  <si>
-    <t>1151311</t>
-  </si>
-  <si>
-    <t>26/02/2021</t>
-  </si>
-  <si>
-    <t>6,943.67</t>
-  </si>
-  <si>
-    <t>1147443</t>
-  </si>
-  <si>
-    <t>04/02/2021</t>
-  </si>
-  <si>
-    <t>13,733.89</t>
-  </si>
-  <si>
-    <t>01/01/2021</t>
-  </si>
-  <si>
-    <t>ILIM Jan 2021</t>
+    <t>30/08/2021</t>
+  </si>
+  <si>
+    <t>7,567.84</t>
+  </si>
+  <si>
+    <t>ILIM Aug 2021</t>
+  </si>
+  <si>
+    <t>1177725</t>
+  </si>
+  <si>
+    <t>12/08/2021</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>ILIM July 21</t>
+  </si>
+  <si>
+    <t>1176008</t>
+  </si>
+  <si>
+    <t>30/07/2021</t>
+  </si>
+  <si>
+    <t>ILIM July 2021</t>
+  </si>
+  <si>
+    <t>1173446</t>
+  </si>
+  <si>
+    <t>29/06/2021</t>
+  </si>
+  <si>
+    <t>476.66</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM June 2021 M McNulty (N/E)</t>
+  </si>
+  <si>
+    <t>1172079</t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>15,827.67</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1252,7 @@
     <col min="6" max="6" width="12.625"/>
     <col min="7" max="7" width="15.75"/>
     <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="15"/>
+    <col min="9" max="9" width="28.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -1378,10 +1378,10 @@
         <v>70</v>
       </c>
       <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
         <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -1389,7 +1389,7 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -1398,19 +1398,19 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
@@ -1418,7 +1418,7 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
@@ -1427,19 +1427,19 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s">
         <v>78</v>
-      </c>
-      <c r="I16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
@@ -1447,28 +1447,28 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
         <v>80</v>
       </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
         <v>81</v>
       </c>
-      <c r="F17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>82</v>
       </c>
-      <c r="H17" t="s">
-        <v>78</v>
-      </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
@@ -1476,25 +1476,25 @@
         <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
         <v>87</v>

--- a/RegressionTests/Unit_Test_2/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/Unit_Test_2/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -374,14 +374,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -394,6 +386,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -421,15 +421,18 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1088,7 +1091,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -1108,7 +1111,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
@@ -1128,7 +1131,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
@@ -1148,7 +1151,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
@@ -1168,7 +1171,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
@@ -1207,16 +1210,16 @@
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1298,31 +1301,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="9" t="s">
         <v>57</v>
       </c>
     </row>

--- a/RegressionTests/Unit_Test_2/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/Unit_Test_2/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Pension EE</t>
   </si>
@@ -111,10 +111,6 @@
     <t>AVC</t>
   </si>
   <si>
-    <t>No Refno or PPS number or payroll number specified
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Dromahane</t>
   </si>
   <si>
@@ -151,7 +147,7 @@
     <t>Newtownforbes</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
+    <t>2_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -166,6 +162,12 @@
     <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
+  </si>
+  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -176,130 +178,13 @@
   </si>
   <si>
     <t>6593.46</t>
-  </si>
-  <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1181858</t>
-  </si>
-  <si>
-    <t>352001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>07/09/2021</t>
-  </si>
-  <si>
-    <t>15,788.67</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM August 2021</t>
-  </si>
-  <si>
-    <t>1180620</t>
-  </si>
-  <si>
-    <t>352004</t>
-  </si>
-  <si>
-    <t>Direct Debit</t>
-  </si>
-  <si>
-    <t>30/08/2021</t>
-  </si>
-  <si>
-    <t>7,567.84</t>
-  </si>
-  <si>
-    <t>ILIM Aug 2021</t>
-  </si>
-  <si>
-    <t>1177725</t>
-  </si>
-  <si>
-    <t>12/08/2021</t>
-  </si>
-  <si>
-    <t>01/07/2021</t>
-  </si>
-  <si>
-    <t>ILIM July 21</t>
-  </si>
-  <si>
-    <t>1176008</t>
-  </si>
-  <si>
-    <t>30/07/2021</t>
-  </si>
-  <si>
-    <t>ILIM July 2021</t>
-  </si>
-  <si>
-    <t>1173446</t>
-  </si>
-  <si>
-    <t>29/06/2021</t>
-  </si>
-  <si>
-    <t>476.66</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>ILIM June 2021 M McNulty (N/E)</t>
-  </si>
-  <si>
-    <t>1172079</t>
-  </si>
-  <si>
-    <t>05/07/2021</t>
-  </si>
-  <si>
-    <t>15,827.67</t>
-  </si>
-  <si>
-    <t>ILIM June 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,13 +202,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,25 +299,24 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,10 +924,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.5"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1070,15 +947,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
       <c r="D2">
         <v>263.08</v>
@@ -1090,15 +965,13 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
       <c r="D3">
         <v>117.23</v>
@@ -1110,15 +983,13 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
       </c>
       <c r="D4">
         <v>372.79</v>
@@ -1130,15 +1001,13 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="6" t="s">
-        <v>27</v>
-      </c>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
       </c>
       <c r="D5">
         <v>500.0</v>
@@ -1150,15 +1019,13 @@
         <v>500.0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="6" t="s">
-        <v>27</v>
-      </c>
+    <row r="6" spans="1:6" ht="14.25">
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
       <c r="D6">
         <v>210.54</v>
@@ -1170,15 +1037,13 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="6" t="s">
-        <v>27</v>
-      </c>
+    <row r="7" spans="1:6" ht="14.25">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
       <c r="D7">
         <v>1751.04</v>
@@ -1201,7 +1066,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1211,24 +1076,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" t="s">
         <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1239,24 +1112,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="28.125"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
@@ -1282,225 +1144,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
